--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_3_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_3_sawtooth_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.70000000000058</v>
+        <v>25.11000000000049</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8008465729816707</v>
+        <v>0.4192263255781593</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8008465729816707</v>
+        <v>0.4192263255781593</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>2.035366954275276</v>
+        <v>3.853903221089424</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-6.12667287887423, 10.197406787424782]</t>
+          <t>[-4.074859839607621, 11.782666281786469]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.6179359176332477</v>
+        <v>0.3328202336795303</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6179359176332477</v>
+        <v>0.3328202336795303</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.786210838077079</v>
+        <v>-1.182421259008771</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.9183692794939295, 1.3459476033397708]</t>
+          <t>[-4.276842851733852, 1.9120003337163087]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.2567878470501963</v>
+        <v>0.4455485136173527</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2567878470501963</v>
+        <v>0.4455485136173527</v>
       </c>
       <c r="T2" t="n">
-        <v>13.0169577700369</v>
+        <v>11.67868083320718</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[8.576541168999881, 17.457374371073925]</t>
+          <t>[7.46552317565391, 15.891838490760453]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.32997165900062e-07</v>
+        <v>1.293059207263525e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>4.32997165900062e-07</v>
+        <v>1.293059207263525e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>7.30610610610627</v>
+        <v>4.7254054054055</v>
       </c>
       <c r="Y2" t="n">
-        <v>-5.505305305305427</v>
+        <v>-7.641081081081222</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.11751751751797</v>
+        <v>17.09189189189222</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.70000000000058</v>
+        <v>25.11000000000049</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1282901779290725</v>
+        <v>0.4182127393328969</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1282901779290725</v>
+        <v>0.4182127393328969</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>6.661679272910186</v>
+        <v>5.737398703189258</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-1.158686330555966, 14.482044876376339]</t>
+          <t>[-5.458088896064761, 16.932886302443276]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.09309763056395925</v>
+        <v>0.3075053481867065</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09309763056395925</v>
+        <v>0.3075053481867065</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.610105544182156</v>
+        <v>-2.44031621540108</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.16989529010862, -0.0503157982556921]</t>
+          <t>[-5.578764131599892, 0.6981317007977319]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.04333978580713449</v>
+        <v>0.1243366766334186</v>
       </c>
       <c r="S3" t="n">
-        <v>0.04333978580713449</v>
+        <v>0.1243366766334186</v>
       </c>
       <c r="T3" t="n">
-        <v>12.71240691185809</v>
+        <v>14.91419332318802</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.987217209443791, 17.437596614272387]</t>
+          <t>[8.861170831164042, 20.967215815212004]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.256494792352015e-06</v>
+        <v>1.041801832180056e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>2.256494792352015e-06</v>
+        <v>1.041801832180056e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>6.585785785785934</v>
+        <v>9.75243243243262</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.2058058058058094</v>
+        <v>-2.790000000000054</v>
       </c>
       <c r="Z3" t="n">
-        <v>12.96576576576606</v>
+        <v>22.2948648648653</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.70000000000058</v>
+        <v>25.11000000000049</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5907574212901655</v>
+        <v>0.9999555303274156</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5907574212901655</v>
+        <v>0.9999555303274156</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>3.463406545467097</v>
+        <v>0.03324296055046183</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-5.564348649698904, 12.4911617406331]</t>
+          <t>[-9.84601476952052, 9.912500690621444]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.4437453669747349</v>
+        <v>0.9946224896816831</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4437453669747349</v>
+        <v>0.9946224896816831</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.823947686768848</v>
+        <v>-2.037789829355542</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.9561061281856995, 1.3082107546480026]</t>
+          <t>[-5.176237745554355, 1.1006580868432714]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.2470186652107955</v>
+        <v>0.197598400362285</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2470186652107955</v>
+        <v>0.197598400362285</v>
       </c>
       <c r="T4" t="n">
-        <v>12.25417315974461</v>
+        <v>15.06154896529786</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[7.375329173446026, 17.133017146043194]</t>
+          <t>[10.01214357780687, 20.110954352788852]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>7.561079166329421e-06</v>
+        <v>3.040851868085781e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>7.561079166329421e-06</v>
+        <v>3.040851868085781e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>7.460460460460627</v>
+        <v>8.143783783783942</v>
       </c>
       <c r="Y4" t="n">
-        <v>-5.350950950951074</v>
+        <v>-4.398648648648736</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.27187187187233</v>
+        <v>20.68621621621662</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.70000000000058</v>
+        <v>25.11000000000049</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8473285443876628</v>
+        <v>0.08398931853840674</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8473285443876628</v>
+        <v>0.08398931853840674</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>2.330410692381073</v>
+        <v>8.284755613955815</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-7.736279537003418, 12.397100921765563]</t>
+          <t>[-0.24930769557416355, 16.818818923485793]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.6432791650270331</v>
+        <v>0.05677929154218653</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6432791650270331</v>
+        <v>0.05677929154218653</v>
       </c>
       <c r="P5" t="n">
-        <v>3.08813211794312</v>
+        <v>-3.132158441416851</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.0503157982556921, 6.226580034141932]</t>
+          <t>[-4.528421843012314, -1.7358950398213868]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.05362821025288067</v>
+        <v>4.488458851192867e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05362821025288067</v>
+        <v>4.488458851192867e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>13.36510868411624</v>
+        <v>11.39541899618639</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[7.772085459008746, 18.958131909223734]</t>
+          <t>[6.351049544580287, 16.439788447792484]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.710491267292724e-05</v>
+        <v>4.048036047121784e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>1.710491267292724e-05</v>
+        <v>4.048036047121784e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>13.06866866866896</v>
+        <v>12.51729729729754</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2315315315315392</v>
+        <v>6.937297297297431</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.90580580580639</v>
+        <v>18.09729729729765</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.70000000000058</v>
+        <v>25.11000000000049</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8595389794377102</v>
+        <v>0.4184600384767202</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8595389794377102</v>
+        <v>0.4184600384767202</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>1.759908973301473</v>
+        <v>5.503285566188358</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-6.4685323424844485, 9.988350289087396]</t>
+          <t>[-4.919430450883745, 15.926001583260462]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.6686856014814522</v>
+        <v>0.2932451149968536</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6686856014814522</v>
+        <v>0.2932451149968536</v>
       </c>
       <c r="P6" t="n">
-        <v>2.949763672739966</v>
+        <v>3.100711067507043</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.18868424345884627, 6.088211588938779]</t>
+          <t>[0.03144737390980801, 6.169974761104278]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.06479770449860189</v>
+        <v>0.0477943125633713</v>
       </c>
       <c r="S6" t="n">
-        <v>0.06479770449860189</v>
+        <v>0.0477943125633713</v>
       </c>
       <c r="T6" t="n">
-        <v>14.11814114341047</v>
+        <v>15.50356500749877</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[9.665022874569665, 18.571259412251273]</t>
+          <t>[9.74327459836718, 21.263855416630367]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>8.345090463102167e-08</v>
+        <v>2.239552049587701e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>8.345090463102167e-08</v>
+        <v>2.239552049587701e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>13.63463463463494</v>
+        <v>12.71837837837863</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.7974974974975115</v>
+        <v>0.4524324324324436</v>
       </c>
       <c r="Z6" t="n">
-        <v>26.47177177177237</v>
+        <v>24.98432432432481</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.70000000000058</v>
+        <v>25.11000000000049</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9885973485281829</v>
+        <v>0.4012974845793731</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9885973485281829</v>
+        <v>0.4012974845793731</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>0.5193593156116947</v>
+        <v>4.579746181114198</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-9.263632066029373, 10.302350697252763]</t>
+          <t>[-4.371842678130727, 13.531335040359124]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.9153240027235192</v>
+        <v>0.3083098911402802</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9153240027235192</v>
+        <v>0.3083098911402802</v>
       </c>
       <c r="P7" t="n">
-        <v>1.566079220708426</v>
+        <v>-2.767368904063081</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.572368695490387, 4.704527136907239]</t>
+          <t>[-5.905816820261893, 0.37107901213573147]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.3202545872940621</v>
+        <v>0.08250108085270025</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3202545872940621</v>
+        <v>0.08250108085270025</v>
       </c>
       <c r="T7" t="n">
-        <v>14.82252189155948</v>
+        <v>14.33365487205164</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[9.775976765018427, 19.869067018100527]</t>
+          <t>[9.661323683362493, 19.005986060740792]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.16381147116951e-07</v>
+        <v>1.693697715410281e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>4.16381147116951e-07</v>
+        <v>1.693697715410281e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>19.29429429429473</v>
+        <v>11.05945945945967</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.457157157157297</v>
+        <v>-1.482972972973002</v>
       </c>
       <c r="Z7" t="n">
-        <v>32.13143143143215</v>
+        <v>23.60189189189235</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.70000000000058</v>
+        <v>25.11000000000049</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5118682945477431</v>
+        <v>0.4811767069545426</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5118682945477431</v>
+        <v>0.4811767069545426</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>3.746011937639211</v>
+        <v>4.961365694129873</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-4.594509871156571, 12.086533746434995]</t>
+          <t>[-6.038923399467849, 15.961654787727596]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.3704938061204817</v>
+        <v>0.3685044585094146</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3704938061204817</v>
+        <v>0.3685044585094146</v>
       </c>
       <c r="P8" t="n">
-        <v>2.962342622303889</v>
+        <v>2.635289933641888</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.17610529389492324, 6.100790538502702]</t>
+          <t>[-0.4528421843012316, 5.7234220515850085]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.06370616086308845</v>
+        <v>0.09253224259438242</v>
       </c>
       <c r="S8" t="n">
-        <v>0.06370616086308845</v>
+        <v>0.09253224259438242</v>
       </c>
       <c r="T8" t="n">
-        <v>11.45018822378355</v>
+        <v>13.78377956892482</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[6.973067901194862, 15.927308546372245]</t>
+          <t>[8.010211770381634, 19.557347367468]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>5.55417062320096e-06</v>
+        <v>1.7357979471333e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>5.55417062320096e-06</v>
+        <v>1.7357979471333e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>13.58318318318349</v>
+        <v>14.57837837837866</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.746046046046061</v>
+        <v>2.23702702702707</v>
       </c>
       <c r="Z8" t="n">
-        <v>26.42032032032091</v>
+        <v>26.91972972973025</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.70000000000058</v>
+        <v>25.11000000000049</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4237077651342909</v>
+        <v>0.106059356267232</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4237077651342909</v>
+        <v>0.106059356267232</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>4.43876450854251</v>
+        <v>6.07571436180916</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-5.018373800869137, 13.895902817954157]</t>
+          <t>[-0.9394460125127395, 13.09087473613106]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.3495381662209702</v>
+        <v>0.08792005227083077</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3495381662209702</v>
+        <v>0.08792005227083077</v>
       </c>
       <c r="P9" t="n">
-        <v>2.446605690183042</v>
+        <v>2.798816277972889</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.6792632764518469, 5.572474656817931]</t>
+          <t>[0.8993948938205025, 4.698237662125276]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1219314539099863</v>
+        <v>0.004791473754724107</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1219314539099863</v>
+        <v>0.004791473754724107</v>
       </c>
       <c r="T9" t="n">
-        <v>15.36385450306565</v>
+        <v>14.09418490034724</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[10.513742178442563, 20.21396682768874]</t>
+          <t>[10.150439220175059, 18.037930580519426]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>8.499814563300845e-08</v>
+        <v>5.186853169192318e-09</v>
       </c>
       <c r="W9" t="n">
-        <v>8.499814563300845e-08</v>
+        <v>5.186853169192318e-09</v>
       </c>
       <c r="X9" t="n">
-        <v>15.69269269269305</v>
+        <v>13.92486486486513</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.907007007007072</v>
+        <v>6.33405405405418</v>
       </c>
       <c r="Z9" t="n">
-        <v>28.47837837837902</v>
+        <v>21.51567567567609</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.38000000000037</v>
+        <v>24.68000000000042</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1383050091622253</v>
+        <v>0.2863117866223744</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1383050091622253</v>
+        <v>0.2863117866223744</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>7.761929469525054</v>
+        <v>5.937202900472083</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-2.4596594878098195, 17.983518426859927]</t>
+          <t>[-4.1678603754677335, 16.0422661764119]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.1331546908049861</v>
+        <v>0.2428722119166786</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1331546908049861</v>
+        <v>0.2428722119166786</v>
       </c>
       <c r="P10" t="n">
-        <v>1.981184556317887</v>
+        <v>1.17613178422681</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.792473822527155, 4.754842935162928]</t>
+          <t>[-1.7547634641672714, 4.10702703262089]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1571703899834818</v>
+        <v>0.4232078225880087</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1571703899834818</v>
+        <v>0.4232078225880087</v>
       </c>
       <c r="T10" t="n">
-        <v>14.56804845061037</v>
+        <v>14.52410251164994</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[9.096071661465643, 20.04002523975509]</t>
+          <t>[9.214559569485937, 19.833645453813944]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.730845124920833e-06</v>
+        <v>1.659016093169541e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>2.730845124920833e-06</v>
+        <v>1.659016093169541e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>16.69261261261287</v>
+        <v>20.06022022022056</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.930270270270366</v>
+        <v>8.547827827827975</v>
       </c>
       <c r="Z10" t="n">
-        <v>27.45495495495537</v>
+        <v>31.57261261261315</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.38000000000037</v>
+        <v>24.68000000000042</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6022136873212407</v>
+        <v>0.3427646857355275</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6022136873212407</v>
+        <v>0.3427646857355275</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>3.394878259122445</v>
+        <v>5.059854454420283</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-5.824709633391601, 12.61446615163649]</t>
+          <t>[-4.707391474945079, 14.827100383785645]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.4621573971287596</v>
+        <v>0.3023396283923381</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4621573971287596</v>
+        <v>0.3023396283923381</v>
       </c>
       <c r="P11" t="n">
-        <v>2.056658253701427</v>
+        <v>2.320816194543811</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.0817896624973864, 5.19510616990024]</t>
+          <t>[-0.8176317216550011, 5.459264110742623]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1935558834888804</v>
+        <v>0.1433612638625363</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1935558834888804</v>
+        <v>0.1433612638625363</v>
       </c>
       <c r="T11" t="n">
-        <v>14.52197671628494</v>
+        <v>14.71133159802147</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[9.72417109351802, 19.319782339051855]</t>
+          <t>[9.822417531500147, 19.600245664542786]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.246463597366244e-07</v>
+        <v>2.537368837263188e-07</v>
       </c>
       <c r="W11" t="n">
-        <v>2.246463597366244e-07</v>
+        <v>2.537368837263188e-07</v>
       </c>
       <c r="X11" t="n">
-        <v>16.39975975976001</v>
+        <v>15.56396396396423</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.221961961962023</v>
+        <v>3.236316316316373</v>
       </c>
       <c r="Z11" t="n">
-        <v>28.57755755755799</v>
+        <v>27.89161161161208</v>
       </c>
     </row>
     <row r="12">
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.38000000000037</v>
+        <v>24.68000000000042</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02464372033934459</v>
+        <v>0.2854900093068811</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02464372033934459</v>
+        <v>0.2854900093068811</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>7.608696513980789</v>
+        <v>3.736717893868177</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[0.989908343348354, 14.227484684613223]</t>
+          <t>[-2.379556593108214, 9.852992380844569]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.0252112376764515</v>
+        <v>0.2248998133770654</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0252112376764515</v>
+        <v>0.2248998133770654</v>
       </c>
       <c r="P12" t="n">
-        <v>1.729605565039425</v>
+        <v>1.880552959806503</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.5094474573388847, 2.949763672739966]</t>
+          <t>[-1.2390265320464238, 5.0001324516594305]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.006486368093026718</v>
+        <v>0.2310251497917766</v>
       </c>
       <c r="S12" t="n">
-        <v>0.006486368093026718</v>
+        <v>0.2310251497917766</v>
       </c>
       <c r="T12" t="n">
-        <v>12.03554210978613</v>
+        <v>8.462491424557971</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[8.186132148562901, 15.884952071009355]</t>
+          <t>[5.1021317547980525, 11.82285109431789]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.128920161796998e-07</v>
+        <v>7.231198985158116e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>1.128920161796998e-07</v>
+        <v>7.231198985158116e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>17.66878878878906</v>
+        <v>17.29329329329358</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.93433433433453</v>
+        <v>5.039759759759843</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.40324324324359</v>
+        <v>29.54682682682732</v>
       </c>
     </row>
     <row r="13">
@@ -1511,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.38000000000037</v>
+        <v>24.68000000000042</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.003467233576252671</v>
+        <v>0.1135417174172465</v>
       </c>
       <c r="I13" t="n">
-        <v>0.003467233576252671</v>
+        <v>0.1135417174172465</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>10.97907330272869</v>
+        <v>6.795510992073441</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[3.8495276167173884, 18.108618988739988]</t>
+          <t>[-1.8127590983316013, 15.403781082478485]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.003318789608460104</v>
+        <v>0.1188441984642858</v>
       </c>
       <c r="O13" t="n">
-        <v>0.003318789608460104</v>
+        <v>0.1188441984642858</v>
       </c>
       <c r="P13" t="n">
-        <v>1.666710817219809</v>
+        <v>1.956026657190042</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.8113422468730382, 2.5220793875665803]</t>
+          <t>[-0.10063159651138509, 4.012684910891468]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.0002947526616319252</v>
+        <v>0.06178931590434189</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0002947526616319252</v>
+        <v>0.06178931590434189</v>
       </c>
       <c r="T13" t="n">
-        <v>13.89814390646382</v>
+        <v>13.55837455285957</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[9.511187132454882, 18.285100680472752]</t>
+          <t>[8.976873352720741, 18.139875752998396]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>8.480561342061321e-08</v>
+        <v>3.573802200840248e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>8.480561342061321e-08</v>
+        <v>3.573802200840248e-07</v>
       </c>
       <c r="X13" t="n">
-        <v>17.91283283283311</v>
+        <v>16.99683683683713</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.59383383383406</v>
+        <v>8.918398398398548</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.23183183183216</v>
+        <v>25.0752752752757</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.38000000000037</v>
+        <v>24.68000000000042</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2762594295893146</v>
+        <v>0.3940904375120654</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2762594295893146</v>
+        <v>0.3940904375120654</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>5.078324060595268</v>
+        <v>4.606515262215658</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-3.285683764062089, 13.442331885252624]</t>
+          <t>[-4.6048179734595545, 13.817848497890871]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.2277368215055344</v>
+        <v>0.3192063363139512</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2277368215055344</v>
+        <v>0.3192063363139512</v>
       </c>
       <c r="P14" t="n">
-        <v>1.981184556317887</v>
+        <v>2.018921405009657</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-1.0314738642416934, 4.993842976877467]</t>
+          <t>[-1.1069475616252324, 5.144790371644546]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.1920198124122223</v>
+        <v>0.1999286366810165</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1920198124122223</v>
+        <v>0.1999286366810165</v>
       </c>
       <c r="T14" t="n">
-        <v>10.39303151481194</v>
+        <v>13.62847910830333</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[5.922293659062146, 14.863769370561737]</t>
+          <t>[8.813269372664411, 18.443688843942258]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2.629473385273862e-05</v>
+        <v>8.672866844694482e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>2.629473385273862e-05</v>
+        <v>8.672866844694482e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>16.69261261261287</v>
+        <v>16.74978978979007</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.002902902902987</v>
+        <v>4.471551551551627</v>
       </c>
       <c r="Z14" t="n">
-        <v>28.38232232232275</v>
+        <v>29.02802802802852</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.38000000000037</v>
+        <v>24.68000000000042</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6408904778733912</v>
+        <v>0.1278402478286547</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6408904778733912</v>
+        <v>0.1278402478286547</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>3.18367703366694</v>
+        <v>6.369277272119423</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-5.987059855759031, 12.35441392309291]</t>
+          <t>[-1.9317034337644214, 14.670257978003267]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.4880204243325912</v>
+        <v>0.1292524938423429</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4880204243325912</v>
+        <v>0.1292524938423429</v>
       </c>
       <c r="P15" t="n">
-        <v>1.289342330302117</v>
+        <v>0.6352369529781159</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-1.7987897876410024, 4.377474448245236]</t>
+          <t>[-2.4340267406191196, 3.7045006465753514]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.4048396955513072</v>
+        <v>0.678767540551368</v>
       </c>
       <c r="S15" t="n">
-        <v>0.4048396955513072</v>
+        <v>0.678767540551368</v>
       </c>
       <c r="T15" t="n">
-        <v>12.93583574189096</v>
+        <v>12.65987964737078</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[8.131841834998326, 17.73982964878359]</t>
+          <t>[8.324247880263954, 16.995511414477612]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>2.220272298680825e-06</v>
+        <v>4.686555237221057e-07</v>
       </c>
       <c r="W15" t="n">
-        <v>2.220272298680825e-06</v>
+        <v>4.686555237221057e-07</v>
       </c>
       <c r="X15" t="n">
-        <v>19.37709709709739</v>
+        <v>22.1848248248252</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.394534534534651</v>
+        <v>10.1289289289291</v>
       </c>
       <c r="Z15" t="n">
-        <v>31.35965965966014</v>
+        <v>34.2407207207213</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_3_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_3_sawtooth_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.11000000000049</v>
+        <v>25.75000000000059</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4192263255781593</v>
+        <v>0.6637895184201816</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4192263255781593</v>
+        <v>0.6637895184201816</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>3.853903221089424</v>
+        <v>2.915554201474003</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-4.074859839607621, 11.782666281786469]</t>
+          <t>[-5.253867091569329, 11.084975494517334]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.3328202336795303</v>
+        <v>0.4759766691442695</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3328202336795303</v>
+        <v>0.4759766691442695</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.182421259008771</v>
+        <v>-0.1132105460753081</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.276842851733852, 1.9120003337163087]</t>
+          <t>[-3.232790037928236, 3.00636894577762]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.4455485136173527</v>
+        <v>0.9420564683733637</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4455485136173527</v>
+        <v>0.9420564683733637</v>
       </c>
       <c r="T2" t="n">
-        <v>11.67868083320718</v>
+        <v>15.15378455751094</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[7.46552317565391, 15.891838490760453]</t>
+          <t>[10.704518340319787, 19.60305077470209]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.293059207263525e-06</v>
+        <v>1.644908076414708e-08</v>
       </c>
       <c r="W2" t="n">
-        <v>1.293059207263525e-06</v>
+        <v>1.644908076414708e-08</v>
       </c>
       <c r="X2" t="n">
-        <v>4.7254054054055</v>
+        <v>0.4639639639639768</v>
       </c>
       <c r="Y2" t="n">
-        <v>-7.641081081081222</v>
+        <v>-12.3208208208211</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.09189189189222</v>
+        <v>13.24874874874905</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.11000000000049</v>
+        <v>25.75000000000059</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4182127393328969</v>
+        <v>0.07961170563359654</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4182127393328969</v>
+        <v>0.07961170563359654</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>5.737398703189258</v>
+        <v>7.874536413918931</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-5.458088896064761, 16.932886302443276]</t>
+          <t>[-0.7938853916572102, 16.542958219495073]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.3075053481867065</v>
+        <v>0.07393282080758801</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3075053481867065</v>
+        <v>0.07393282080758801</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.44031621540108</v>
+        <v>-1.761052938949233</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-5.578764131599892, 0.6981317007977319]</t>
+          <t>[-3.3334216344396204, -0.18868424345884627]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.1243366766334186</v>
+        <v>0.02899148415184261</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1243366766334186</v>
+        <v>0.02899148415184261</v>
       </c>
       <c r="T3" t="n">
-        <v>14.91419332318802</v>
+        <v>13.83073687966624</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[8.861170831164042, 20.967215815212004]</t>
+          <t>[8.865514254599208, 18.795959504733272]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.041801832180056e-05</v>
+        <v>1.178475915075694e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>1.041801832180056e-05</v>
+        <v>1.178475915075694e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>9.75243243243262</v>
+        <v>7.217217217217382</v>
       </c>
       <c r="Y3" t="n">
-        <v>-2.790000000000054</v>
+        <v>0.7732732732732908</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.2948648648653</v>
+        <v>13.66116116116147</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.11000000000049</v>
+        <v>25.75000000000059</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9999555303274156</v>
+        <v>0.8438136508979035</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9999555303274156</v>
+        <v>0.8438136508979035</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>0.03324296055046183</v>
+        <v>1.936523166343973</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-9.84601476952052, 9.912500690621444]</t>
+          <t>[-6.7897530249288796, 10.662799357616825]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.9946224896816831</v>
+        <v>0.6570427650427275</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9946224896816831</v>
+        <v>0.6570427650427275</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.037789829355542</v>
+        <v>-2.566105711040311</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.176237745554355, 1.1006580868432714]</t>
+          <t>[-5.6919746776752005, 0.5597632555945777]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.197598400362285</v>
+        <v>0.1052041933060011</v>
       </c>
       <c r="S4" t="n">
-        <v>0.197598400362285</v>
+        <v>0.1052041933060011</v>
       </c>
       <c r="T4" t="n">
-        <v>15.06154896529786</v>
+        <v>11.09504003312766</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[10.01214357780687, 20.110954352788852]</t>
+          <t>[6.5114025462124605, 15.678677520042866]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.040851868085781e-07</v>
+        <v>1.391798469962957e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>3.040851868085781e-07</v>
+        <v>1.391798469962957e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>8.143783783783942</v>
+        <v>10.51651651651676</v>
       </c>
       <c r="Y4" t="n">
-        <v>-4.398648648648736</v>
+        <v>-2.294044044044096</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.68621621621662</v>
+        <v>23.32707707707761</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.11000000000049</v>
+        <v>25.75000000000059</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08398931853840674</v>
+        <v>0.487807545262497</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08398931853840674</v>
+        <v>0.487807545262497</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>8.284755613955815</v>
+        <v>4.422649178929801</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-0.24930769557416355, 16.818818923485793]</t>
+          <t>[-5.465713545295934, 14.311011903155535]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.05677929154218653</v>
+        <v>0.3724779852546236</v>
       </c>
       <c r="O5" t="n">
-        <v>0.05677929154218653</v>
+        <v>0.3724779852546236</v>
       </c>
       <c r="P5" t="n">
-        <v>-3.132158441416851</v>
+        <v>-2.452895164965004</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-4.528421843012314, -1.7358950398213868]</t>
+          <t>[-5.585053606381855, 0.6792632764518478]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.488458851192867e-05</v>
+        <v>0.1217290508212019</v>
       </c>
       <c r="S5" t="n">
-        <v>4.488458851192867e-05</v>
+        <v>0.1217290508212019</v>
       </c>
       <c r="T5" t="n">
-        <v>11.39541899618639</v>
+        <v>15.89472128375685</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.351049544580287, 16.439788447792484]</t>
+          <t>[10.800974959769714, 20.988467607743985]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.048036047121784e-05</v>
+        <v>1.177888446779463e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>4.048036047121784e-05</v>
+        <v>1.177888446779463e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>12.51729729729754</v>
+        <v>10.05255255255278</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.937297297297431</v>
+        <v>-2.78378378378385</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.09729729729765</v>
+        <v>22.88888888888942</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.11000000000049</v>
+        <v>25.75000000000059</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4184600384767202</v>
+        <v>0.1328527312761069</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4184600384767202</v>
+        <v>0.1328527312761069</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>5.503285566188358</v>
+        <v>7.119470199330591</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-4.919430450883745, 15.926001583260462]</t>
+          <t>[-1.0577900139500684, 15.29673041261125]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.2932451149968536</v>
+        <v>0.08631468838890233</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2932451149968536</v>
+        <v>0.08631468838890233</v>
       </c>
       <c r="P6" t="n">
-        <v>3.100711067507043</v>
+        <v>-2.968632097085851</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.03144737390980801, 6.169974761104278]</t>
+          <t>[-4.679369237779392, -1.2578949563923096]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0477943125633713</v>
+        <v>0.001077007110422468</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0477943125633713</v>
+        <v>0.001077007110422468</v>
       </c>
       <c r="T6" t="n">
-        <v>15.50356500749877</v>
+        <v>15.19525566958859</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[9.74327459836718, 21.263855416630367]</t>
+          <t>[10.439996575589692, 19.950514763587492]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.239552049587701e-06</v>
+        <v>7.019627235038683e-08</v>
       </c>
       <c r="W6" t="n">
-        <v>2.239552049587701e-06</v>
+        <v>7.019627235038683e-08</v>
       </c>
       <c r="X6" t="n">
-        <v>12.71837837837863</v>
+        <v>12.16616616616644</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.4524324324324436</v>
+        <v>5.155155155155273</v>
       </c>
       <c r="Z6" t="n">
-        <v>24.98432432432481</v>
+        <v>19.17717717717762</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.11000000000049</v>
+        <v>25.75000000000059</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4012974845793731</v>
+        <v>0.5478251828689764</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4012974845793731</v>
+        <v>0.5478251828689764</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>4.579746181114198</v>
+        <v>4.247059772014992</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-4.371842678130727, 13.531335040359124]</t>
+          <t>[-5.97804093925214, 14.472160483282124]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.3083098911402802</v>
+        <v>0.4072546730093436</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3083098911402802</v>
+        <v>0.4072546730093436</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.767368904063081</v>
+        <v>-2.704474156243466</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-5.905816820261893, 0.37107901213573147]</t>
+          <t>[-5.842922072442278, 0.4339737599553466]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.08250108085270025</v>
+        <v>0.08947854125999033</v>
       </c>
       <c r="S7" t="n">
-        <v>0.08250108085270025</v>
+        <v>0.08947854125999033</v>
       </c>
       <c r="T7" t="n">
-        <v>14.33365487205164</v>
+        <v>12.75925102330012</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[9.661323683362493, 19.005986060740792]</t>
+          <t>[7.47170824110696, 18.046793805493287]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.693697715410281e-07</v>
+        <v>1.463118695754773e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>1.693697715410281e-07</v>
+        <v>1.463118695754773e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>11.05945945945967</v>
+        <v>11.08358358358384</v>
       </c>
       <c r="Y7" t="n">
-        <v>-1.482972972973002</v>
+        <v>-1.778528528528568</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.60189189189235</v>
+        <v>23.94569569569624</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.11000000000049</v>
+        <v>25.75000000000059</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4811767069545426</v>
+        <v>0.1330805830214816</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4811767069545426</v>
+        <v>0.1330805830214816</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.961365694129873</v>
+        <v>8.020079527523659</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-6.038923399467849, 15.961654787727596]</t>
+          <t>[-1.354994489839612, 17.39515354488693]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.3685044585094146</v>
+        <v>0.09175450806884</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3685044585094146</v>
+        <v>0.09175450806884</v>
       </c>
       <c r="P8" t="n">
-        <v>2.635289933641888</v>
+        <v>3.100711067507043</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.4528421843012316, 5.7234220515850085]</t>
+          <t>[1.528342372016656, 4.67307976299743]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.09253224259438242</v>
+        <v>0.0002546233157176836</v>
       </c>
       <c r="S8" t="n">
-        <v>0.09253224259438242</v>
+        <v>0.0002546233157176836</v>
       </c>
       <c r="T8" t="n">
-        <v>13.78377956892482</v>
+        <v>16.21810934064206</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[8.010211770381634, 19.557347367468]</t>
+          <t>[10.820978828404996, 21.61523985287912]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.7357979471333e-05</v>
+        <v>2.611309637412518e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>1.7357979471333e-05</v>
+        <v>2.611309637412518e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>14.57837837837866</v>
+        <v>13.04254254254284</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.23702702702707</v>
+        <v>6.598598598598747</v>
       </c>
       <c r="Z8" t="n">
-        <v>26.91972972973025</v>
+        <v>19.48648648648693</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.11000000000049</v>
+        <v>25.75000000000059</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.106059356267232</v>
+        <v>0.8868880731201165</v>
       </c>
       <c r="I9" t="n">
-        <v>0.106059356267232</v>
+        <v>0.8868880731201165</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>6.07571436180916</v>
+        <v>1.728702058641986</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-0.9394460125127395, 13.09087473613106]</t>
+          <t>[-7.458787085761871, 10.916191203045843]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.08792005227083077</v>
+        <v>0.7064922866024368</v>
       </c>
       <c r="O9" t="n">
-        <v>0.08792005227083077</v>
+        <v>0.7064922866024368</v>
       </c>
       <c r="P9" t="n">
-        <v>2.798816277972889</v>
+        <v>1.150973885098963</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.8993948938205025, 4.698237662125276]</t>
+          <t>[-1.9874740310998495, 4.2894218012977765]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.004791473754724107</v>
+        <v>0.4639613944090177</v>
       </c>
       <c r="S9" t="n">
-        <v>0.004791473754724107</v>
+        <v>0.4639613944090177</v>
       </c>
       <c r="T9" t="n">
-        <v>14.09418490034724</v>
+        <v>13.97575759688245</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[10.150439220175059, 18.037930580519426]</t>
+          <t>[8.909469447960326, 19.042045745804565]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>5.186853169192318e-09</v>
+        <v>1.416836141077127e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>5.186853169192318e-09</v>
+        <v>1.416836141077127e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>13.92486486486513</v>
+        <v>21.03303303303351</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.33405405405418</v>
+        <v>8.170920920921104</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.51567567567609</v>
+        <v>33.89514514514592</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.68000000000042</v>
+        <v>24.20000000000034</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2863117866223744</v>
+        <v>0.5641157484101738</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2863117866223744</v>
+        <v>0.5641157484101738</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>5.937202900472083</v>
+        <v>3.889848361927403</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-4.1678603754677335, 16.0422661764119]</t>
+          <t>[-5.818384453014114, 13.59808117686892]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.2428722119166786</v>
+        <v>0.4239106561122417</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2428722119166786</v>
+        <v>0.4239106561122417</v>
       </c>
       <c r="P10" t="n">
-        <v>1.17613178422681</v>
+        <v>1.779921363295117</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.7547634641672714, 4.10702703262089]</t>
+          <t>[-1.3585265529036947, 4.9183692794939295]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.4232078225880087</v>
+        <v>0.259384522836893</v>
       </c>
       <c r="S10" t="n">
-        <v>0.4232078225880087</v>
+        <v>0.259384522836893</v>
       </c>
       <c r="T10" t="n">
-        <v>14.52410251164994</v>
+        <v>14.49626432550602</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[9.214559569485937, 19.833645453813944]</t>
+          <t>[9.332663053705389, 19.65986559730664]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.659016093169541e-06</v>
+        <v>1.014627568407533e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>1.659016093169541e-06</v>
+        <v>1.014627568407533e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>20.06022022022056</v>
+        <v>17.3445445445448</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.547827827827975</v>
+        <v>5.256656656656737</v>
       </c>
       <c r="Z10" t="n">
-        <v>31.57261261261315</v>
+        <v>29.43243243243285</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.68000000000042</v>
+        <v>24.20000000000034</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3427646857355275</v>
+        <v>0.2318924600840391</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3427646857355275</v>
+        <v>0.2318924600840391</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>5.059854454420283</v>
+        <v>6.49524074039333</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-4.707391474945079, 14.827100383785645]</t>
+          <t>[-3.8550966215412465, 16.845578102327906]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.3023396283923381</v>
+        <v>0.2127639384400719</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3023396283923381</v>
+        <v>0.2127639384400719</v>
       </c>
       <c r="P11" t="n">
-        <v>2.320816194543811</v>
+        <v>2.35855304323558</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.8176317216550011, 5.459264110742623]</t>
+          <t>[-0.7736053981812709, 5.490711484652431]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1433612638625363</v>
+        <v>0.1363506659570199</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1433612638625363</v>
+        <v>0.1363506659570199</v>
       </c>
       <c r="T11" t="n">
-        <v>14.71133159802147</v>
+        <v>12.090037948955</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[9.822417531500147, 19.600245664542786]</t>
+          <t>[6.770362032392937, 17.409713865517055]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.537368837263188e-07</v>
+        <v>3.701387988308547e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>2.537368837263188e-07</v>
+        <v>3.701387988308547e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>15.56396396396423</v>
+        <v>15.11591591591613</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.236316316316373</v>
+        <v>3.052252252252295</v>
       </c>
       <c r="Z11" t="n">
-        <v>27.89161161161208</v>
+        <v>27.17957957957997</v>
       </c>
     </row>
     <row r="12">
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.68000000000042</v>
+        <v>24.20000000000034</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2854900093068811</v>
+        <v>0.002434582946011732</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2854900093068811</v>
+        <v>0.002434582946011732</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>3.736717893868177</v>
+        <v>8.728036208530179</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-2.379556593108214, 9.852992380844569]</t>
+          <t>[2.740896707338276, 14.715175709722082]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.2248998133770654</v>
+        <v>0.005219829683191568</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2248998133770654</v>
+        <v>0.005219829683191568</v>
       </c>
       <c r="P12" t="n">
-        <v>1.880552959806503</v>
+        <v>1.767342413731195</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-1.2390265320464238, 5.0001324516594305]</t>
+          <t>[0.9245527929483472, 2.6101320345140433]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.2310251497917766</v>
+        <v>0.0001155099987264485</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2310251497917766</v>
+        <v>0.0001155099987264485</v>
       </c>
       <c r="T12" t="n">
-        <v>8.462491424557971</v>
+        <v>10.78359183044723</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[5.1021317547980525, 11.82285109431789]</t>
+          <t>[7.425195112875855, 14.141988548018599]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>7.231198985158116e-06</v>
+        <v>6.308926780995705e-08</v>
       </c>
       <c r="W12" t="n">
-        <v>7.231198985158116e-06</v>
+        <v>6.308926780995705e-08</v>
       </c>
       <c r="X12" t="n">
-        <v>17.29329329329358</v>
+        <v>17.39299299299324</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.039759759759843</v>
+        <v>14.14694694694714</v>
       </c>
       <c r="Z12" t="n">
-        <v>29.54682682682732</v>
+        <v>20.63903903903933</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.68000000000042</v>
+        <v>24.20000000000034</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1135417174172465</v>
+        <v>0.05170555331884263</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1135417174172465</v>
+        <v>0.05170555331884263</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>6.795510992073441</v>
+        <v>8.570927349420835</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-1.8127590983316013, 15.403781082478485]</t>
+          <t>[-0.8828871474085673, 18.024741846250237]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.1188441984642858</v>
+        <v>0.0744886520721677</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1188441984642858</v>
+        <v>0.0744886520721677</v>
       </c>
       <c r="P13" t="n">
-        <v>1.956026657190042</v>
+        <v>2.169868799776734</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.10063159651138509, 4.012684910891468]</t>
+          <t>[0.2704474156243464, 4.069290183929121]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.06178931590434189</v>
+        <v>0.0260860489989061</v>
       </c>
       <c r="S13" t="n">
-        <v>0.06178931590434189</v>
+        <v>0.0260860489989061</v>
       </c>
       <c r="T13" t="n">
-        <v>13.55837455285957</v>
+        <v>10.98606006680588</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[8.976873352720741, 18.139875752998396]</t>
+          <t>[6.126122576141459, 15.845997557470302]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>3.573802200840248e-07</v>
+        <v>4.008535361887944e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>3.573802200840248e-07</v>
+        <v>4.008535361887944e-05</v>
       </c>
       <c r="X13" t="n">
-        <v>16.99683683683713</v>
+        <v>15.84264264264287</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.918398398398548</v>
+        <v>8.52692692692705</v>
       </c>
       <c r="Z13" t="n">
-        <v>25.0752752752757</v>
+        <v>23.15835835835869</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.68000000000042</v>
+        <v>24.20000000000034</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3940904375120654</v>
+        <v>0.2215862720632679</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3940904375120654</v>
+        <v>0.2215862720632679</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>4.606515262215658</v>
+        <v>5.951510674398985</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-4.6048179734595545, 13.817848497890871]</t>
+          <t>[-2.956916228792659, 14.85993757759063]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.3192063363139512</v>
+        <v>0.1851806555547355</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3192063363139512</v>
+        <v>0.1851806555547355</v>
       </c>
       <c r="P14" t="n">
-        <v>2.018921405009657</v>
+        <v>2.220184598032426</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-1.1069475616252324, 5.144790371644546]</t>
+          <t>[-0.8868159442565791, 5.327185140321431]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.1999286366810165</v>
+        <v>0.157006164206849</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1999286366810165</v>
+        <v>0.157006164206849</v>
       </c>
       <c r="T14" t="n">
-        <v>13.62847910830333</v>
+        <v>12.32808427121657</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[8.813269372664411, 18.443688843942258]</t>
+          <t>[7.520524945904473, 17.135643596528663]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>8.672866844694482e-07</v>
+        <v>5.304175975329173e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>8.672866844694482e-07</v>
+        <v>5.304175975329173e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>16.74978978979007</v>
+        <v>15.64884884884907</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.471551551551627</v>
+        <v>3.682082082082134</v>
       </c>
       <c r="Z14" t="n">
-        <v>29.02802802802852</v>
+        <v>27.61561561561601</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.68000000000042</v>
+        <v>24.20000000000034</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1278402478286547</v>
+        <v>0.2642763174871871</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1278402478286547</v>
+        <v>0.2642763174871871</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>6.369277272119423</v>
+        <v>4.854169794541298</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-1.9317034337644214, 14.670257978003267]</t>
+          <t>[-3.1141355180389994, 12.822475107121596]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.1292524938423429</v>
+        <v>0.2262180275857959</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1292524938423429</v>
+        <v>0.2262180275857959</v>
       </c>
       <c r="P15" t="n">
-        <v>0.6352369529781159</v>
+        <v>1.201289683354656</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-2.4340267406191196, 3.7045006465753514]</t>
+          <t>[-1.9371582328441566, 4.339737599553468]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.678767540551368</v>
+        <v>0.4447779237730982</v>
       </c>
       <c r="S15" t="n">
-        <v>0.678767540551368</v>
+        <v>0.4447779237730982</v>
       </c>
       <c r="T15" t="n">
-        <v>12.65987964737078</v>
+        <v>10.76784817469974</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[8.324247880263954, 16.995511414477612]</t>
+          <t>[6.5886499256956945, 14.947046423703792]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>4.686555237221057e-07</v>
+        <v>4.883867544380749e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>4.686555237221057e-07</v>
+        <v>4.883867544380749e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>22.1848248248252</v>
+        <v>19.57317317317345</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.1289289289291</v>
+        <v>7.485285285285393</v>
       </c>
       <c r="Z15" t="n">
-        <v>34.2407207207213</v>
+        <v>31.66106106106151</v>
       </c>
     </row>
   </sheetData>
